--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_repository\UIKeywordFramework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9AA1E3-685F-40F8-9871-A47643206CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EFFE3A-8DDB-4288-9190-3AFD8F490743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="测试用例集" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9D5B7C-AC27-4D8D-B9FD-20DC8692367C}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
